--- a/reader/testdata/test_template.xlsx
+++ b/reader/testdata/test_template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date:</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chopper</t>
   </si>
   <si>
     <t xml:space="preserve">Float:</t>
@@ -137,10 +140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:AF5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,10 +166,100 @@
       <c r="B3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2.2</v>
@@ -174,7 +267,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -297,43 +390,43 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2.2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>5.2</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>6.2</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>7.2</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>8.2</v>
@@ -341,43 +434,43 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>14</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>15</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>16</v>
@@ -473,43 +566,43 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5.2</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6.2</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>7.2</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>8.2</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>9.2</v>
@@ -517,43 +610,43 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>15</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>16</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>17</v>
@@ -649,43 +742,43 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5.2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6.2</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>7.2</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>8.2</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>9.2</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>10.2</v>
@@ -693,43 +786,43 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>15</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>16</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>17</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>18</v>
@@ -825,43 +918,43 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>5.2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>6.2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7.2</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>8.2</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>9.2</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>10.2</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>11.2</v>
@@ -869,43 +962,43 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>18</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>19</v>
@@ -1001,43 +1094,43 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>6.2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>7.2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8.2</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>9.2</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>10.2</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>11.2</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>12.2</v>
@@ -1045,43 +1138,43 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>17</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>19</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>20</v>
@@ -1177,43 +1270,43 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8.2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9.2</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>10.2</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>11.2</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>12.2</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>13.2</v>
@@ -1221,43 +1314,43 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>19</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>21</v>
@@ -1353,43 +1446,43 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>8.2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>9.2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10.2</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>11.2</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>12.2</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>13.2</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>14.2</v>
@@ -1397,43 +1490,43 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>19</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>21</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>22</v>
@@ -1529,43 +1622,43 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>9.2</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10.2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>11.2</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>12.2</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>13.2</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>14.2</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>15.2</v>
@@ -1573,43 +1666,43 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>19</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>21</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>22</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>23</v>
@@ -1705,43 +1798,43 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>10.2</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>11.2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>12.2</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>13.2</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>14.2</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>15.2</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>16.2</v>
@@ -1749,43 +1842,43 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>21</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>22</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>23</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>24</v>

--- a/reader/testdata/test_template.xlsx
+++ b/reader/testdata/test_template.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Another Sheet" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Introduction" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="7">
   <si>
     <t xml:space="preserve">Date:</t>
   </si>
@@ -39,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Integer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Department</t>
   </si>
 </sst>
 </file>
@@ -142,14 +146,11 @@
   </sheetPr>
   <dimension ref="A2:AF5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -295,10 +296,7 @@
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1937,4 +1935,33 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/reader/testdata/test_template.xlsx
+++ b/reader/testdata/test_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="9">
   <si>
     <t xml:space="preserve">Date:</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Integer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botticelli</t>
   </si>
   <si>
     <t xml:space="preserve">Test Department</t>
@@ -151,10 +154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AF5"/>
+  <dimension ref="A2:IG10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="HM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="IG10" activeCellId="0" sqref="IG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,6 +285,11 @@
       </c>
       <c r="B5" s="1" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="IG10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1965,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1975,10 +1983,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reader/testdata/test_template.xlsx
+++ b/reader/testdata/test_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="10">
   <si>
     <t xml:space="preserve">Date:</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">Greedy Parrots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUNT</t>
   </si>
 </sst>
 </file>
@@ -156,14 +159,11 @@
   </sheetPr>
   <dimension ref="A2:IG10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="HM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="HM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IG10" activeCellId="0" sqref="IG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -314,10 +314,7 @@
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1963,17 +1960,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,6 +1982,11 @@
       </c>
       <c r="J9" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
